--- a/SetList/xlsx/angerme.xlsx
+++ b/SetList/xlsx/angerme.xlsx
@@ -1,18 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/prog/HPServer/SetList/xlsx/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30157477-6C2E-0B45-9410-027FAED2927C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="38420" yWindow="500" windowWidth="38380" windowHeight="23500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="21 CONCERT TOUR~The ANGERME~" sheetId="1" r:id="rId4"/>
+    <sheet name="22 〜The ANGERME Encore〜" sheetId="3" r:id="rId1"/>
+    <sheet name="22 ~The ANGERME~" sheetId="1" r:id="rId2"/>
+    <sheet name="21 笠原桃奈卒業コンサート" sheetId="4" r:id="rId3"/>
+    <sheet name="20船木結卒業コンサート" sheetId="5" r:id="rId4"/>
     <sheet name="20冬春 ROCK ON！ " sheetId="2" r:id="rId5"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="112">
   <si>
     <t>項番</t>
   </si>
@@ -153,25 +165,530 @@
   </si>
   <si>
     <t>４６億年LOVE</t>
+  </si>
+  <si>
+    <t>赤いイヤホン</t>
+    <rPh sb="0" eb="1">
+      <t>アカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全員</t>
+    <rPh sb="0" eb="1">
+      <t>ゼンイn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>人生、すなわちパンタ・レイ</t>
+    <rPh sb="0" eb="2">
+      <t>ジンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マナーモード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>夏将軍</t>
+    <rPh sb="0" eb="3">
+      <t>ナテゥ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハデにやっちゃいな！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次々続々</t>
+    <rPh sb="0" eb="1">
+      <t>ツギツギズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>愛されルート A or B?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>乙女の逆襲</t>
+    <rPh sb="0" eb="2">
+      <t>オトメ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ギャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ミラー・ミラー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>七転び八起き</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>限りあるMoment</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>愛のため今日まで進化してきた人間 愛のためすべて退化してきた人間</t>
+    <rPh sb="0" eb="1">
+      <t>アイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出すぎた杭は打たれない</t>
+    <rPh sb="0" eb="1">
+      <t>デスギタ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ウタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダンスパフォーマンス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダンス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>竹内朱莉　川村文乃　佐々木莉佳子　上國料萌衣　笠原桃奈</t>
+    <rPh sb="0" eb="4">
+      <t>タケウティ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>カワムラアヤノ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ササキ</t>
+    </rPh>
+    <rPh sb="17" eb="22">
+      <t>カミコクリョウ</t>
+    </rPh>
+    <rPh sb="23" eb="27">
+      <t>カサハル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ぁまのじゃく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>伊勢鈴蘭　橋迫鈴　川名凜　為永幸音　松本わかな</t>
+    <rPh sb="0" eb="4">
+      <t>イセレイ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ハシサコリn</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>カワナリn</t>
+    </rPh>
+    <rPh sb="13" eb="17">
+      <t>タメナガ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>マツモト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新・日本の進め！</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">シン </t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニホn</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ススメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>魔女っ子メグちゃん</t>
+    <rPh sb="0" eb="2">
+      <t>マジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Uraha＝Lover</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>交差点</t>
+    <rPh sb="0" eb="3">
+      <t>コウサテn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>泣けないぜ…共感詐欺</t>
+    <rPh sb="0" eb="1">
+      <t>ナケナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タデ食う虫もLike it！</t>
+    <rPh sb="2" eb="3">
+      <t xml:space="preserve">クウ </t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ムセィ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>はっきりしようぜ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドンデンガエシ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>４６億年LOVE</t>
+    <rPh sb="2" eb="4">
+      <t>オク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地球は今日も愛を育む</t>
+    <rPh sb="0" eb="2">
+      <t>チキュウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>アイヲ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ハグクム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>友よ</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">トモ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大器晩成</t>
+    <rPh sb="0" eb="4">
+      <t>タイキバンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I 無双 Strong！</t>
+    <rPh sb="2" eb="4">
+      <t>ムソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次々続々</t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学級委員長</t>
+    <rPh sb="0" eb="5">
+      <t>ガッキュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>川名凜　為永幸音　松本わかな</t>
+    <rPh sb="0" eb="3">
+      <t>カワナリn</t>
+    </rPh>
+    <rPh sb="4" eb="8">
+      <t>タメナガ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>マツモト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全然起き上がれないSUNDAY</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンゼn</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>オキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>忘れてあげる</t>
+    <rPh sb="0" eb="1">
+      <t>ワスレ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ミステリーナイト！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>私の心</t>
+    <rPh sb="0" eb="1">
+      <t>ワタセィ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チョットマテクダサイ！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>船木結　竹内朱莉</t>
+    <rPh sb="0" eb="3">
+      <t>フナキ</t>
+    </rPh>
+    <rPh sb="4" eb="8">
+      <t>タケウチアク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サンキュ！クレームプリュレの友情</t>
+    <rPh sb="14" eb="16">
+      <t>ユウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>船木結　佐々木莉佳子</t>
+    <rPh sb="0" eb="1">
+      <t>フナキ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ササキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自転車チリリン</t>
+    <rPh sb="0" eb="3">
+      <t>ジテn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>船木結　上國料萌衣</t>
+    <rPh sb="0" eb="3">
+      <t>フナキ</t>
+    </rPh>
+    <rPh sb="4" eb="9">
+      <t>カミコクリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>臥薪嘗胆</t>
+    <rPh sb="0" eb="4">
+      <t>ガシンショウタn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>船木結　笠原桃奈</t>
+    <rPh sb="0" eb="3">
+      <t>フナキムス</t>
+    </rPh>
+    <rPh sb="4" eb="8">
+      <t>カサハル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>船木結　川村文乃</t>
+    <rPh sb="0" eb="3">
+      <t>フナキム</t>
+    </rPh>
+    <rPh sb="4" eb="8">
+      <t>カワムラアヤノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鏡の国のひねくれクイーン</t>
+    <rPh sb="0" eb="1">
+      <t>カガミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>船木結　伊勢鈴蘭</t>
+    <rPh sb="0" eb="3">
+      <t>フナキ</t>
+    </rPh>
+    <rPh sb="4" eb="8">
+      <t>イセレイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オトナになってる難しい！！！</t>
+    <rPh sb="8" eb="9">
+      <t>ムズカシイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>船木結　橋迫鈴</t>
+    <rPh sb="0" eb="3">
+      <t>フナキ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ハシサコリn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>寒いね。</t>
+    <rPh sb="0" eb="1">
+      <t>サムイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>船木結　川名凜　為永幸音　松本わかな</t>
+    <rPh sb="0" eb="3">
+      <t>フナキ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カワナリn</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>タメナガ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>マツモト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>君だけじゃないさい・・・friends</t>
+    <rPh sb="0" eb="1">
+      <t>キミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キソクタダシクウツクシク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>私を創るのは私</t>
+    <rPh sb="2" eb="3">
+      <t>ツクル</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ワタセィ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>限りあるMoment</t>
+    <rPh sb="0" eb="1">
+      <t>カギリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>泣けないぜ・・・共感詐欺</t>
+    <rPh sb="0" eb="1">
+      <t>ナケ</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>キョウカンサグ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タデ食う虫もLike it！</t>
+    <rPh sb="2" eb="3">
+      <t>クウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ムセィ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>帰りたくないな。</t>
+    <rPh sb="0" eb="1">
+      <t>カエリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>船木結</t>
+    <rPh sb="0" eb="3">
+      <t>フナキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>４６億年LOVE</t>
+    <rPh sb="2" eb="4">
+      <t>オクネn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="MS PGothic"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="6"/>
+      <name val="Noto Sans JP Black"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="MS PGothic"/>
+      <family val="2"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="3">
@@ -188,7 +705,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -211,100 +728,118 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -506,7 +1041,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -525,7 +1060,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -555,7 +1090,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -581,7 +1116,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -607,7 +1142,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -633,7 +1168,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -659,7 +1194,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -685,7 +1220,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -711,7 +1246,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -737,7 +1272,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -763,7 +1298,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -776,9 +1311,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -795,7 +1336,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -814,7 +1355,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -840,7 +1381,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -866,7 +1407,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -892,7 +1433,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -918,7 +1459,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -944,7 +1485,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -970,7 +1511,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -996,7 +1537,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1022,7 +1563,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1048,7 +1589,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1061,9 +1602,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1077,7 +1624,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1096,7 +1643,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1126,7 +1673,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1152,7 +1699,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1178,7 +1725,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1204,7 +1751,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1230,7 +1777,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1256,7 +1803,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1282,7 +1829,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1308,7 +1855,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1334,7 +1881,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1347,350 +1894,339 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0665AC90-2004-A64B-89BB-D87D009EF81C}">
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6667" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.85156" style="1" customWidth="1"/>
-    <col min="2" max="2" width="53.8516" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85156" style="1" customWidth="1"/>
-    <col min="4" max="4" width="49.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6719" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="12.6719" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="53.83203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="49.5" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="12.6640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="4">
+    </row>
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="2">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="E2" s="5"/>
-    </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="4">
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="E3" s="5"/>
-    </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="4">
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" t="s" s="2">
+      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="E4" s="5"/>
-    </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="4">
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" t="s" s="2">
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="E5" s="5"/>
-    </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="4">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s" s="2">
+      <c r="C5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C6" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="E6" s="5"/>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="4">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s" s="2">
+      <c r="C7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="C7" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="4">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s" s="2">
+      <c r="B12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="C8" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="E8" s="5"/>
-    </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="4">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s" s="2">
+      <c r="B13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="C9" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="4">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s" s="2">
+      <c r="B14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="C10" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s" s="2">
+      <c r="B15" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="4">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s" s="2">
+      <c r="B16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="C11" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="D11" t="s" s="2">
+      <c r="B17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="E11" s="5"/>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="4">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s" s="2">
+      <c r="B18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="C12" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="D12" t="s" s="2">
+      <c r="B19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="4">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s" s="2">
+      <c r="B20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="C13" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="D13" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="E13" s="5"/>
-    </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="4">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="C14" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="D14" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="E14" s="5"/>
-    </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="4">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="C15" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="D15" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="E15" s="5"/>
-    </row>
-    <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="4">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="D16" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="E16" s="5"/>
-    </row>
-    <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="4">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="D17" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="E17" s="5"/>
-    </row>
-    <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="4">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="D18" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="E18" s="5"/>
-    </row>
-    <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="4">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="C19" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="D19" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="E19" s="5"/>
-    </row>
-    <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="4">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="C20" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="D20" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="E20" s="5"/>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="4">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="C21" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="D21" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="E21" s="6"/>
+      <c r="B21" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"MS PGothic,Regular"&amp;11&amp;K000000000000&amp;P</oddFooter>
   </headerFooter>
@@ -1698,309 +2234,1595 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6667" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.85156" style="7" customWidth="1"/>
-    <col min="2" max="2" width="53.8516" style="7" customWidth="1"/>
-    <col min="3" max="3" width="8.85156" style="7" customWidth="1"/>
-    <col min="4" max="4" width="49.5" style="7" customWidth="1"/>
-    <col min="5" max="5" width="12.6719" style="7" customWidth="1"/>
-    <col min="6" max="16384" width="12.6719" style="7" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="53.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="49.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="12.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="4">
+    </row>
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="2">
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="portrait"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"MS PGothic,Regular"&amp;11&amp;K000000000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19CF96EF-BEEF-2F47-A243-8171EBBFC09A}">
+  <dimension ref="A1:D28"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="8.83203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="61.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="49.5" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="12.6640625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="3">
+        <v>24</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="3">
+        <v>25</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="3">
+        <v>26</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="3">
+        <v>27</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="portrait"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"MS PGothic,Regular"&amp;11&amp;K000000000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B61959E-7CE3-1243-A80F-744C52A29588}">
+  <dimension ref="A1:D37"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="8.83203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="61.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="49.5" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="12.6640625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="3">
+        <v>24</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="3">
+        <v>25</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="3">
+        <v>26</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="3">
+        <v>27</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="3">
+        <v>28</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="3">
+        <v>29</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="3">
         <v>30</v>
       </c>
-      <c r="C2" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="E2" s="5"/>
-    </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="4">
+      <c r="B31" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="3">
+        <v>31</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="3">
+        <v>32</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="3">
+        <v>33</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="3">
+        <v>34</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="3">
+        <v>35</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="3">
+        <v>36</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="portrait"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"MS PGothic,Regular"&amp;11&amp;K000000000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="8.83203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="53.83203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="49.5" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="12.6640625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="E3" s="5"/>
-    </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="4">
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" t="s" s="2">
+      <c r="B4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C4" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="E4" s="5"/>
-    </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="4">
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" t="s" s="2">
+      <c r="B5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="5"/>
-    </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="4">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s" s="2">
+    </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C6" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="E6" s="5"/>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="4">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s" s="2">
+      <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C7" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s" s="2">
+      <c r="C7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="4">
+    </row>
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" t="s" s="2">
+      <c r="B8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C8" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s" s="2">
+      <c r="C8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="5"/>
-    </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="4">
+    </row>
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" t="s" s="2">
+      <c r="B9" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C9" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s" s="2">
+      <c r="C9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="4">
+    </row>
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" t="s" s="2">
+      <c r="B10" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C10" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s" s="2">
+      <c r="C10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="4">
+    </row>
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" t="s" s="2">
+      <c r="B11" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C11" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="D11" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="E11" s="5"/>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="4">
+      <c r="C11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" t="s" s="2">
+      <c r="B12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C12" t="s" s="2">
+      <c r="C12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D12" t="s" s="2">
+      <c r="D12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="4">
+    </row>
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" t="s" s="2">
+      <c r="B13" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C13" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="D13" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="E13" s="5"/>
-    </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="4">
+      <c r="C13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" t="s" s="2">
+      <c r="B14" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C14" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="D14" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="E14" s="5"/>
-    </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="4">
+      <c r="C14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" t="s" s="2">
+      <c r="B15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="D15" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="E15" s="5"/>
-    </row>
-    <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="4">
+      <c r="C15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" t="s" s="2">
+      <c r="B16" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C16" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="D16" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="E16" s="5"/>
-    </row>
-    <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="4">
+      <c r="C16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" t="s" s="2">
+      <c r="B17" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C17" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="D17" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="E17" s="5"/>
-    </row>
-    <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="4">
+      <c r="C17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" t="s" s="2">
+      <c r="B18" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C18" t="s" s="2">
+      <c r="C18" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D18" t="s" s="2">
+      <c r="D18" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="5"/>
-    </row>
-    <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="4">
+    </row>
+    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" t="s" s="2">
+      <c r="B19" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C19" t="s" s="2">
+      <c r="C19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D19" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="E19" s="6"/>
+      <c r="D19" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"MS PGothic,Regular"&amp;11&amp;K000000000000&amp;P</oddFooter>
   </headerFooter>

--- a/SetList/xlsx/angerme.xlsx
+++ b/SetList/xlsx/angerme.xlsx
@@ -1,30 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/prog/HPServer/SetList/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30157477-6C2E-0B45-9410-027FAED2927C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7912E2A-61B9-B848-8BDA-7E1FC929BCD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38420" yWindow="500" windowWidth="38380" windowHeight="23500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38420" yWindow="500" windowWidth="38380" windowHeight="23500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="22 〜The ANGERME Encore〜" sheetId="3" r:id="rId1"/>
-    <sheet name="22 ~The ANGERME~" sheetId="1" r:id="rId2"/>
-    <sheet name="21 笠原桃奈卒業コンサート" sheetId="4" r:id="rId3"/>
-    <sheet name="20船木結卒業コンサート" sheetId="5" r:id="rId4"/>
-    <sheet name="20冬春 ROCK ON！ " sheetId="2" r:id="rId5"/>
+    <sheet name="22 concert tour angel and smile" sheetId="6" r:id="rId1"/>
+    <sheet name="22 〜The ANGERME Encore〜" sheetId="3" r:id="rId2"/>
+    <sheet name="22 ~The ANGERME~" sheetId="1" r:id="rId3"/>
+    <sheet name="21 笠原桃奈卒業コンサート" sheetId="4" r:id="rId4"/>
+    <sheet name="20船木結卒業コンサート" sheetId="5" r:id="rId5"/>
+    <sheet name="20冬春 ROCK ON！ " sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="137">
   <si>
     <t>項番</t>
   </si>
@@ -664,6 +665,277 @@
     <rPh sb="2" eb="4">
       <t>オクネn</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>愛のために今日まで進化してきた人間　愛のためにすべて退化してきた人間</t>
+    <rPh sb="0" eb="1">
+      <t>アイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キョウマデ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シンカ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>アイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t xml:space="preserve">タイカ </t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ニn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>悔しいわ</t>
+    <rPh sb="0" eb="1">
+      <t>クヤセィ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>泣けないぜ…共感詐欺</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>私の心</t>
+    <rPh sb="0" eb="1">
+      <t>ワタセィ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ココロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新・日本のすすめ！</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">シン </t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニホn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カクゴして！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メドレー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上國料萌衣　伊勢鈴蘭　川名凜　松本わかな</t>
+    <rPh sb="0" eb="5">
+      <t>カミコクリョウ</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>イセ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>カワナリn</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>マツモト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新しい私になれ！</t>
+    <rPh sb="3" eb="4">
+      <t>ワタセィ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>竹内朱莉　佐々木莉佳子　川村文乃　川名凜　為永幸音　平山遊季</t>
+    <rPh sb="0" eb="4">
+      <t>タケウティ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ササキ</t>
+    </rPh>
+    <rPh sb="12" eb="16">
+      <t>カワムラアヤノ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>カワナリn</t>
+    </rPh>
+    <rPh sb="21" eb="25">
+      <t>タメナガ</t>
+    </rPh>
+    <rPh sb="26" eb="30">
+      <t xml:space="preserve">ヒラヤマユキ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>竹内朱莉　上國料萌衣　川村文乃　橋迫鈴　為永幸音　平山遊季</t>
+    <rPh sb="0" eb="1">
+      <t>タケウティ</t>
+    </rPh>
+    <rPh sb="5" eb="10">
+      <t>カミコクリョウム</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>カワムラアヤノ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>ハシサコリn</t>
+    </rPh>
+    <rPh sb="20" eb="24">
+      <t>タメナガ</t>
+    </rPh>
+    <rPh sb="25" eb="29">
+      <t>ヒラヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ショートカット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上國料萌衣　伊勢鈴蘭　橋迫鈴　松本わかな</t>
+    <rPh sb="0" eb="1">
+      <t>カミコクリョウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>イセ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>ハシサコリn</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>マツモト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>汗かいてカルナバル</t>
+    <rPh sb="0" eb="1">
+      <t>アセカイテ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>佐々木莉佳子　川村文乃　橋迫鈴　為永幸音　平山遊季</t>
+    <rPh sb="0" eb="1">
+      <t>ササキ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>カワムラアヤノ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>ハシサコリn</t>
+    </rPh>
+    <rPh sb="16" eb="20">
+      <t>タメナガ</t>
+    </rPh>
+    <rPh sb="21" eb="25">
+      <t>ヒラヤマイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プリーズミニスカポストウーマン！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>竹内朱莉　上國料萌衣　伊勢鈴蘭　橋迫鈴　松本わかな　平山遊季</t>
+    <rPh sb="0" eb="4">
+      <t>タケウティ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カミコクリョウ</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>イセ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>ハシサコリn</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>マツモト</t>
+    </rPh>
+    <rPh sb="26" eb="30">
+      <t>ヒラヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>もう一歩</t>
+    <rPh sb="2" eb="4">
+      <t>イッポ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>竹内朱莉　佐々木莉佳子　伊勢鈴蘭　川名凜　松本わかな</t>
+    <rPh sb="0" eb="4">
+      <t>タケウチアカリ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ササキ</t>
+    </rPh>
+    <rPh sb="12" eb="16">
+      <t>イセ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>カワナリn</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>マツモト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>夢見る　１５歳</t>
+    <rPh sb="0" eb="2">
+      <t>ユメ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>サイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>佐々木莉佳子　川村文乃　川名凜　為永幸音</t>
+    <rPh sb="0" eb="2">
+      <t>ササキ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カワムラアヤノ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>カワナリn</t>
+    </rPh>
+    <rPh sb="16" eb="20">
+      <t>タメナガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>愛すべきべきHuman Life</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スキちゃん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>限りあるMorment</t>
+    <rPh sb="0" eb="1">
+      <t>カギリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Piece of Peace〜しあわせのパズル〜</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1912,6 +2184,384 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D483D423-391E-5D42-8802-778439D4D4BA}">
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="8.83203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="66" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="58.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="12.6640625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="3">
+        <v>24</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="portrait"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"MS PGothic,Regular"&amp;11&amp;K000000000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0665AC90-2004-A64B-89BB-D87D009EF81C}">
   <dimension ref="A1:D21"/>
   <sheetViews>
@@ -2233,7 +2883,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D22"/>
   <sheetViews>
@@ -2569,7 +3219,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19CF96EF-BEEF-2F47-A243-8171EBBFC09A}">
   <dimension ref="A1:D28"/>
   <sheetViews>
@@ -2989,11 +3639,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B61959E-7CE3-1243-A80F-744C52A29588}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
@@ -3535,7 +4185,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
